--- a/Input/Data.xlsx
+++ b/Input/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subhikshaa S\Documents\UiPath\Feedback-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sivashankar\Downloads\New folder\sem_7\ARPA\Hackathon\UiPath-Feedback-Analysis\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D422B13F-3DA0-429A-AE94-CA27F090E29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2853B0-76DA-4112-98E3-EFA2A054E36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -251,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -274,21 +274,529 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -299,6 +807,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0102AF9B-91EE-4D7D-B4EB-DFC77C3D0F29}" name="Feedbacks" displayName="Feedbacks" ref="A1:T101" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:T101" xr:uid="{0102AF9B-91EE-4D7D-B4EB-DFC77C3D0F29}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{66DAACDA-AE3C-4766-8C6C-CAD5695E48E0}" name="prof_name" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{F31D2DB5-B1E7-44E2-A1A3-5D60AF6CC86B}" name="course_name" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{9BA0EC9E-6C97-4E00-A55C-EB82527BE04D}" name="feedback_of_prof" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{B90168E4-9009-424E-B260-CB07ABE815A1}" name="feedback_of_course" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{2A5BE666-269E-44B9-97F1-D5A70006EFB5}" name="prof_teaching_clarity" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{67B1DE19-5399-418D-9284-7579BB66D4FD}" name="prof_audibility" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{43AA4954-CDAC-4E24-AD81-A406B1605955}" name="prof_engagement" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{C9313647-AD89-44E3-B655-6A28EBC61586}" name="prof_industry_relevance" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{B5F1B6A4-8F30-496F-AF68-7C3ED68A8A4F}" name="prof_student_interaction" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{542C0B08-C2AA-462A-B3DE-AE6339960503}" name="prof_problem_solving" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{52425FBA-99E2-468C-930D-C1CCBB4D46AE}" name="prof_tech_integration" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{A9388CAB-9E24-4C83-BE18-4DEF360B0E0C}" name="prof_punctuality" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{16AD8CF6-5B16-45F4-B39C-48504CEE81CE}" name="course_content_quality" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{33E415B9-E3E6-41C2-A2A0-A0FA419BDD0F}" name="course_difficulty" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{4C91C9A0-BDF4-4E8F-B1A7-EC2CD4756E5C}" name="course_relevance_to_career" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{C9073860-5A75-45A5-BF9B-06E432444EE0}" name="course_material_availability" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{B05B441B-9BF3-473A-8CD1-D8CED1719FF6}" name="course_evaluation_fairness" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{CEBE7FA2-CAA0-4813-9383-650762A78FF0}" name="course_teamwork_opportunities" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{ADBA9426-1786-468E-BBFA-7EC81E614C52}" name="course_assignment_quality" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{CEF77C58-AD83-470A-9C75-A8C5D6895D03}" name="course_practical_examples" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,86 +1125,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="12.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.44140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -724,12 +1278,12 @@
       <c r="S2" s="1">
         <v>1</v>
       </c>
-      <c r="T2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="T2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -786,12 +1340,12 @@
       <c r="S3" s="1">
         <v>2</v>
       </c>
-      <c r="T3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="T3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -848,12 +1402,12 @@
       <c r="S4" s="1">
         <v>3</v>
       </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="T4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -910,12 +1464,12 @@
       <c r="S5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="T5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -972,12 +1526,12 @@
       <c r="S6" s="1">
         <v>4</v>
       </c>
-      <c r="T6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="T6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1034,12 +1588,12 @@
       <c r="S7" s="1">
         <v>4</v>
       </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="T7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1096,12 +1650,12 @@
       <c r="S8" s="1">
         <v>1</v>
       </c>
-      <c r="T8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="T8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1158,12 +1712,12 @@
       <c r="S9" s="1">
         <v>3</v>
       </c>
-      <c r="T9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="T9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1220,12 +1774,12 @@
       <c r="S10" s="1">
         <v>3</v>
       </c>
-      <c r="T10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="T10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1282,12 +1836,12 @@
       <c r="S11" s="1">
         <v>3</v>
       </c>
-      <c r="T11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="T11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1344,12 +1898,12 @@
       <c r="S12" s="1">
         <v>5</v>
       </c>
-      <c r="T12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="T12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1406,12 +1960,12 @@
       <c r="S13" s="1">
         <v>5</v>
       </c>
-      <c r="T13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="T13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1468,12 +2022,12 @@
       <c r="S14" s="1">
         <v>5</v>
       </c>
-      <c r="T14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="T14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1530,12 +2084,12 @@
       <c r="S15" s="1">
         <v>2</v>
       </c>
-      <c r="T15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="T15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1592,12 +2146,12 @@
       <c r="S16" s="1">
         <v>1</v>
       </c>
-      <c r="T16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="T16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1654,12 +2208,12 @@
       <c r="S17" s="1">
         <v>2</v>
       </c>
-      <c r="T17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="T17" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1716,12 +2270,12 @@
       <c r="S18" s="1">
         <v>3</v>
       </c>
-      <c r="T18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="T18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1778,12 +2332,12 @@
       <c r="S19" s="1">
         <v>5</v>
       </c>
-      <c r="T19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="T19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1840,12 +2394,12 @@
       <c r="S20" s="1">
         <v>1</v>
       </c>
-      <c r="T20" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="T20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1902,12 +2456,12 @@
       <c r="S21" s="1">
         <v>2</v>
       </c>
-      <c r="T21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="T21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1964,12 +2518,12 @@
       <c r="S22" s="1">
         <v>2</v>
       </c>
-      <c r="T22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="T22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2026,12 +2580,12 @@
       <c r="S23" s="1">
         <v>4</v>
       </c>
-      <c r="T23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="T23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2088,12 +2642,12 @@
       <c r="S24" s="1">
         <v>5</v>
       </c>
-      <c r="T24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="T24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2150,12 +2704,12 @@
       <c r="S25" s="1">
         <v>5</v>
       </c>
-      <c r="T25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="T25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2212,12 +2766,12 @@
       <c r="S26" s="1">
         <v>1</v>
       </c>
-      <c r="T26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="T26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2274,12 +2828,12 @@
       <c r="S27" s="1">
         <v>5</v>
       </c>
-      <c r="T27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="T27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2336,12 +2890,12 @@
       <c r="S28" s="1">
         <v>5</v>
       </c>
-      <c r="T28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="T28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2398,12 +2952,12 @@
       <c r="S29" s="1">
         <v>4</v>
       </c>
-      <c r="T29" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="T29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2460,12 +3014,12 @@
       <c r="S30" s="1">
         <v>3</v>
       </c>
-      <c r="T30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="T30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2522,12 +3076,12 @@
       <c r="S31" s="1">
         <v>5</v>
       </c>
-      <c r="T31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="T31" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2584,12 +3138,12 @@
       <c r="S32" s="1">
         <v>2</v>
       </c>
-      <c r="T32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="T32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2646,12 +3200,12 @@
       <c r="S33" s="1">
         <v>5</v>
       </c>
-      <c r="T33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="T33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2708,12 +3262,12 @@
       <c r="S34" s="1">
         <v>4</v>
       </c>
-      <c r="T34" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="T34" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2770,12 +3324,12 @@
       <c r="S35" s="1">
         <v>2</v>
       </c>
-      <c r="T35" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="T35" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2832,12 +3386,12 @@
       <c r="S36" s="1">
         <v>2</v>
       </c>
-      <c r="T36" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="T36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2894,12 +3448,12 @@
       <c r="S37" s="1">
         <v>2</v>
       </c>
-      <c r="T37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="T37" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2956,12 +3510,12 @@
       <c r="S38" s="1">
         <v>2</v>
       </c>
-      <c r="T38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="T38" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3018,12 +3572,12 @@
       <c r="S39" s="1">
         <v>1</v>
       </c>
-      <c r="T39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="T39" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3080,12 +3634,12 @@
       <c r="S40" s="1">
         <v>1</v>
       </c>
-      <c r="T40" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="T40" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3142,12 +3696,12 @@
       <c r="S41" s="1">
         <v>2</v>
       </c>
-      <c r="T41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="T41" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3204,12 +3758,12 @@
       <c r="S42" s="1">
         <v>2</v>
       </c>
-      <c r="T42" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="T42" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3266,12 +3820,12 @@
       <c r="S43" s="1">
         <v>5</v>
       </c>
-      <c r="T43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="T43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3328,12 +3882,12 @@
       <c r="S44" s="1">
         <v>5</v>
       </c>
-      <c r="T44" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="T44" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3390,12 +3944,12 @@
       <c r="S45" s="1">
         <v>4</v>
       </c>
-      <c r="T45" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="T45" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3452,12 +4006,12 @@
       <c r="S46" s="1">
         <v>2</v>
       </c>
-      <c r="T46" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="T46" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3514,12 +4068,12 @@
       <c r="S47" s="1">
         <v>3</v>
       </c>
-      <c r="T47" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="T47" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3576,12 +4130,12 @@
       <c r="S48" s="1">
         <v>2</v>
       </c>
-      <c r="T48" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="T48" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3638,12 +4192,12 @@
       <c r="S49" s="1">
         <v>2</v>
       </c>
-      <c r="T49" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="T49" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3700,12 +4254,12 @@
       <c r="S50" s="1">
         <v>5</v>
       </c>
-      <c r="T50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="T50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3762,12 +4316,12 @@
       <c r="S51" s="1">
         <v>5</v>
       </c>
-      <c r="T51" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="T51" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3824,12 +4378,12 @@
       <c r="S52" s="1">
         <v>1</v>
       </c>
-      <c r="T52" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="T52" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3886,12 +4440,12 @@
       <c r="S53" s="1">
         <v>2</v>
       </c>
-      <c r="T53" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="T53" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3948,12 +4502,12 @@
       <c r="S54" s="1">
         <v>3</v>
       </c>
-      <c r="T54" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="T54" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4010,12 +4564,12 @@
       <c r="S55" s="1">
         <v>2</v>
       </c>
-      <c r="T55" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="T55" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -4072,12 +4626,12 @@
       <c r="S56" s="1">
         <v>5</v>
       </c>
-      <c r="T56" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="T56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4134,12 +4688,12 @@
       <c r="S57" s="1">
         <v>2</v>
       </c>
-      <c r="T57" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="T57" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4196,12 +4750,12 @@
       <c r="S58" s="1">
         <v>5</v>
       </c>
-      <c r="T58" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="T58" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -4258,12 +4812,12 @@
       <c r="S59" s="1">
         <v>1</v>
       </c>
-      <c r="T59" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="T59" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -4320,12 +4874,12 @@
       <c r="S60" s="1">
         <v>2</v>
       </c>
-      <c r="T60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="T60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -4382,12 +4936,12 @@
       <c r="S61" s="1">
         <v>2</v>
       </c>
-      <c r="T61" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="T61" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4444,12 +4998,12 @@
       <c r="S62" s="1">
         <v>4</v>
       </c>
-      <c r="T62" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="T62" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -4506,12 +5060,12 @@
       <c r="S63" s="1">
         <v>1</v>
       </c>
-      <c r="T63" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="T63" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -4568,12 +5122,12 @@
       <c r="S64" s="1">
         <v>2</v>
       </c>
-      <c r="T64" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="T64" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4630,12 +5184,12 @@
       <c r="S65" s="1">
         <v>4</v>
       </c>
-      <c r="T65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+      <c r="T65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -4692,12 +5246,12 @@
       <c r="S66" s="1">
         <v>2</v>
       </c>
-      <c r="T66" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="T66" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -4754,12 +5308,12 @@
       <c r="S67" s="1">
         <v>3</v>
       </c>
-      <c r="T67" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="T67" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -4816,12 +5370,12 @@
       <c r="S68" s="1">
         <v>2</v>
       </c>
-      <c r="T68" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+      <c r="T68" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4878,12 +5432,12 @@
       <c r="S69" s="1">
         <v>1</v>
       </c>
-      <c r="T69" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+      <c r="T69" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4940,12 +5494,12 @@
       <c r="S70" s="1">
         <v>2</v>
       </c>
-      <c r="T70" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+      <c r="T70" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -5002,12 +5556,12 @@
       <c r="S71" s="1">
         <v>4</v>
       </c>
-      <c r="T71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
+      <c r="T71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -5064,12 +5618,12 @@
       <c r="S72" s="1">
         <v>4</v>
       </c>
-      <c r="T72" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+      <c r="T72" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -5126,12 +5680,12 @@
       <c r="S73" s="1">
         <v>3</v>
       </c>
-      <c r="T73" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+      <c r="T73" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -5188,12 +5742,12 @@
       <c r="S74" s="1">
         <v>2</v>
       </c>
-      <c r="T74" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
+      <c r="T74" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -5250,12 +5804,12 @@
       <c r="S75" s="1">
         <v>1</v>
       </c>
-      <c r="T75" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
+      <c r="T75" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -5312,12 +5866,12 @@
       <c r="S76" s="1">
         <v>2</v>
       </c>
-      <c r="T76" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+      <c r="T76" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -5374,12 +5928,12 @@
       <c r="S77" s="1">
         <v>5</v>
       </c>
-      <c r="T77" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
+      <c r="T77" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -5436,12 +5990,12 @@
       <c r="S78" s="1">
         <v>4</v>
       </c>
-      <c r="T78" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+      <c r="T78" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -5498,12 +6052,12 @@
       <c r="S79" s="1">
         <v>4</v>
       </c>
-      <c r="T79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="T79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -5560,12 +6114,12 @@
       <c r="S80" s="1">
         <v>4</v>
       </c>
-      <c r="T80" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+      <c r="T80" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -5622,12 +6176,12 @@
       <c r="S81" s="1">
         <v>1</v>
       </c>
-      <c r="T81" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="T81" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -5684,12 +6238,12 @@
       <c r="S82" s="1">
         <v>1</v>
       </c>
-      <c r="T82" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+      <c r="T82" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -5746,12 +6300,12 @@
       <c r="S83" s="1">
         <v>5</v>
       </c>
-      <c r="T83" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="T83" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -5808,12 +6362,12 @@
       <c r="S84" s="1">
         <v>2</v>
       </c>
-      <c r="T84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+      <c r="T84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -5870,12 +6424,12 @@
       <c r="S85" s="1">
         <v>1</v>
       </c>
-      <c r="T85" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+      <c r="T85" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -5932,12 +6486,12 @@
       <c r="S86" s="1">
         <v>3</v>
       </c>
-      <c r="T86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+      <c r="T86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -5994,12 +6548,12 @@
       <c r="S87" s="1">
         <v>5</v>
       </c>
-      <c r="T87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+      <c r="T87" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -6056,12 +6610,12 @@
       <c r="S88" s="1">
         <v>2</v>
       </c>
-      <c r="T88" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+      <c r="T88" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -6118,12 +6672,12 @@
       <c r="S89" s="1">
         <v>1</v>
       </c>
-      <c r="T89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+      <c r="T89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -6180,12 +6734,12 @@
       <c r="S90" s="1">
         <v>5</v>
       </c>
-      <c r="T90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+      <c r="T90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -6242,12 +6796,12 @@
       <c r="S91" s="1">
         <v>1</v>
       </c>
-      <c r="T91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+      <c r="T91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -6304,12 +6858,12 @@
       <c r="S92" s="1">
         <v>5</v>
       </c>
-      <c r="T92" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+      <c r="T92" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -6366,12 +6920,12 @@
       <c r="S93" s="1">
         <v>1</v>
       </c>
-      <c r="T93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+      <c r="T93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -6428,12 +6982,12 @@
       <c r="S94" s="1">
         <v>3</v>
       </c>
-      <c r="T94" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+      <c r="T94" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -6490,12 +7044,12 @@
       <c r="S95" s="1">
         <v>5</v>
       </c>
-      <c r="T95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+      <c r="T95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -6552,12 +7106,12 @@
       <c r="S96" s="1">
         <v>4</v>
       </c>
-      <c r="T96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+      <c r="T96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -6614,12 +7168,12 @@
       <c r="S97" s="1">
         <v>3</v>
       </c>
-      <c r="T97" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+      <c r="T97" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -6676,12 +7230,12 @@
       <c r="S98" s="1">
         <v>2</v>
       </c>
-      <c r="T98" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
+      <c r="T98" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -6738,12 +7292,12 @@
       <c r="S99" s="1">
         <v>3</v>
       </c>
-      <c r="T99" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+      <c r="T99" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -6800,73 +7354,76 @@
       <c r="S100" s="1">
         <v>2</v>
       </c>
-      <c r="T100" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+      <c r="T100" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E101" s="1">
-        <v>3</v>
-      </c>
-      <c r="F101" s="1">
-        <v>2</v>
-      </c>
-      <c r="G101" s="1">
-        <v>2</v>
-      </c>
-      <c r="H101" s="1">
-        <v>1</v>
-      </c>
-      <c r="I101" s="1">
-        <v>2</v>
-      </c>
-      <c r="J101" s="1">
-        <v>1</v>
-      </c>
-      <c r="K101" s="1">
-        <v>3</v>
-      </c>
-      <c r="L101" s="1">
-        <v>4</v>
-      </c>
-      <c r="M101" s="1">
-        <v>1</v>
-      </c>
-      <c r="N101" s="1">
-        <v>1</v>
-      </c>
-      <c r="O101" s="1">
-        <v>1</v>
-      </c>
-      <c r="P101" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q101" s="1">
-        <v>4</v>
-      </c>
-      <c r="R101" s="1">
-        <v>2</v>
-      </c>
-      <c r="S101" s="1">
-        <v>5</v>
-      </c>
-      <c r="T101" s="1">
+      <c r="E101" s="10">
+        <v>3</v>
+      </c>
+      <c r="F101" s="10">
+        <v>2</v>
+      </c>
+      <c r="G101" s="10">
+        <v>2</v>
+      </c>
+      <c r="H101" s="10">
+        <v>1</v>
+      </c>
+      <c r="I101" s="10">
+        <v>2</v>
+      </c>
+      <c r="J101" s="10">
+        <v>1</v>
+      </c>
+      <c r="K101" s="10">
+        <v>3</v>
+      </c>
+      <c r="L101" s="10">
+        <v>4</v>
+      </c>
+      <c r="M101" s="10">
+        <v>1</v>
+      </c>
+      <c r="N101" s="10">
+        <v>1</v>
+      </c>
+      <c r="O101" s="10">
+        <v>1</v>
+      </c>
+      <c r="P101" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q101" s="10">
+        <v>4</v>
+      </c>
+      <c r="R101" s="10">
+        <v>2</v>
+      </c>
+      <c r="S101" s="10">
+        <v>5</v>
+      </c>
+      <c r="T101" s="11">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>